--- a/src/assets/files/parners.xlsx
+++ b/src/assets/files/parners.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NDU\apps\inventoryio\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freedom.khanyile\source\repos\inventoryio-web\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5EBB44-545D-46F3-8F44-1D73D6A15499}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B614C3-5DE9-4C10-91A4-59CAC1EE0F9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4C3BFB4-E7F0-468C-9254-80F61098C28F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4C3BFB4-E7F0-468C-9254-80F61098C28F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="597">
   <si>
     <t>Name</t>
   </si>
@@ -54,61 +54,1774 @@
     <t>John</t>
   </si>
   <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>john@mail.com</t>
-  </si>
-  <si>
-    <t>25 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>26 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>27 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>28 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>29 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>30 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>31 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>32 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>33 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>34 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>35 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>36 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>37 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>38 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>39 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>40 Fox St, JHB 2021</t>
-  </si>
-  <si>
-    <t>41 Fox St, JHB 2021</t>
+    <t>154B24D4-8FBB-4C4C-CC2F-BB98E666E574</t>
+  </si>
+  <si>
+    <t>Wing</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>1-127-422-0527</t>
+  </si>
+  <si>
+    <t>velit.Quisque.varius@enimnec.org</t>
+  </si>
+  <si>
+    <t>Ap #827-3454 Gravida Rd.</t>
+  </si>
+  <si>
+    <t>374A17FA-434B-5D07-F883-7B1A24E7BD54</t>
+  </si>
+  <si>
+    <t>Tashya</t>
+  </si>
+  <si>
+    <t>Cooke</t>
+  </si>
+  <si>
+    <t>607-2167</t>
+  </si>
+  <si>
+    <t>dolor@justositamet.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #372-5820 Eu St.</t>
+  </si>
+  <si>
+    <t>F29E65CA-3253-4FFB-AEE6-198F932F97F4</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>841-5851</t>
+  </si>
+  <si>
+    <t>non@elitfermentum.ca</t>
+  </si>
+  <si>
+    <t>2240 Magna. Rd.</t>
+  </si>
+  <si>
+    <t>652869FD-F459-C5B8-E36D-BD76DCCC1217</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>1-473-393-7552</t>
+  </si>
+  <si>
+    <t>dictum@adipiscinglobortis.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #661-905 Ante Road</t>
+  </si>
+  <si>
+    <t>2AC9BA3D-54DA-8AD0-7401-E9A01C45D8A7</t>
+  </si>
+  <si>
+    <t>Colton</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>333-8016</t>
+  </si>
+  <si>
+    <t>et.lacinia.vitae@sem.net</t>
+  </si>
+  <si>
+    <t>637-2038 Fusce Av.</t>
+  </si>
+  <si>
+    <t>F31C5050-4F97-3E75-AC78-2F9CC9D3F1B9</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Middleton</t>
+  </si>
+  <si>
+    <t>753-5216</t>
+  </si>
+  <si>
+    <t>eget@sitamet.ca</t>
+  </si>
+  <si>
+    <t>P.O. Box 600, 6157 Porttitor Avenue</t>
+  </si>
+  <si>
+    <t>25E52220-5416-67B2-45C2-2F0C1EC27840</t>
+  </si>
+  <si>
+    <t>Colette</t>
+  </si>
+  <si>
+    <t>Atkinson</t>
+  </si>
+  <si>
+    <t>210-6099</t>
+  </si>
+  <si>
+    <t>In@eratinconsectetuer.net</t>
+  </si>
+  <si>
+    <t>Ap #383-3601 Donec Rd.</t>
+  </si>
+  <si>
+    <t>FD21176A-56EC-A0A8-816A-334226DA924E</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>1-832-305-0376</t>
+  </si>
+  <si>
+    <t>sociis@loremacrisus.edu</t>
+  </si>
+  <si>
+    <t>P.O. Box 846, 3053 Ridiculus Rd.</t>
+  </si>
+  <si>
+    <t>3D5FE87A-D51A-2DD8-3573-31F80F622863</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Orr</t>
+  </si>
+  <si>
+    <t>1-843-705-8411</t>
+  </si>
+  <si>
+    <t>vitae.risus.Duis@Loremipsum.ca</t>
+  </si>
+  <si>
+    <t>Ap #805-5470 Ac, St.</t>
+  </si>
+  <si>
+    <t>2CDF9BA7-8AF9-15AB-F2DF-485C6E92B622</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Huffman</t>
+  </si>
+  <si>
+    <t>1-891-802-7815</t>
+  </si>
+  <si>
+    <t>Maecenas.ornare.egestas@Crassed.org</t>
+  </si>
+  <si>
+    <t>P.O. Box 647, 9938 Quam. Avenue</t>
+  </si>
+  <si>
+    <t>E855ABD3-5B73-23DE-7BBE-019406A584A4</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>543-2923</t>
+  </si>
+  <si>
+    <t>eu.augue@eu.org</t>
+  </si>
+  <si>
+    <t>507-2580 Suspendisse Avenue</t>
+  </si>
+  <si>
+    <t>57930ACA-E042-61E8-F085-E4C4EEB4DF23</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>491-8388</t>
+  </si>
+  <si>
+    <t>ac.urna@parturientmontes.org</t>
+  </si>
+  <si>
+    <t>Ap #156-6168 Nunc Avenue</t>
+  </si>
+  <si>
+    <t>F8C8A173-8E28-08F7-86D7-D3734BD8F821</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>1-758-561-4579</t>
+  </si>
+  <si>
+    <t>orci.Donec@lectus.co.uk</t>
+  </si>
+  <si>
+    <t>6468 Maecenas Ave</t>
+  </si>
+  <si>
+    <t>2D27F585-36DA-756D-D6DA-AA54A0FCCDB0</t>
+  </si>
+  <si>
+    <t>Randolph</t>
+  </si>
+  <si>
+    <t>159-3225</t>
+  </si>
+  <si>
+    <t>id.magna@pretiumneque.edu</t>
+  </si>
+  <si>
+    <t>Ap #621-3756 Tortor. St.</t>
+  </si>
+  <si>
+    <t>894BAFED-05A7-7DBB-22F6-2DCE10855ABF</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>1-930-747-5276</t>
+  </si>
+  <si>
+    <t>nec.urna.et@mollislectus.ca</t>
+  </si>
+  <si>
+    <t>P.O. Box 317, 4123 Lacinia Rd.</t>
+  </si>
+  <si>
+    <t>55BB487F-B1E7-6B45-6F94-6269C41840E6</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>778-9897</t>
+  </si>
+  <si>
+    <t>mus.Aenean.eget@velit.net</t>
+  </si>
+  <si>
+    <t>385-3276 Mattis. Avenue</t>
+  </si>
+  <si>
+    <t>B06429E0-28B8-E936-CF93-88F309012326</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>1-721-758-0991</t>
+  </si>
+  <si>
+    <t>consectetuer.cursus.et@egestas.com</t>
+  </si>
+  <si>
+    <t>P.O. Box 137, 7067 Risus Ave</t>
+  </si>
+  <si>
+    <t>597991AE-D9D4-B522-ED07-E6A9E31A5FC6</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Berger</t>
+  </si>
+  <si>
+    <t>1-439-897-8766</t>
+  </si>
+  <si>
+    <t>In.condimentum.Donec@euismodac.org</t>
+  </si>
+  <si>
+    <t>P.O. Box 586, 3903 Molestie Av.</t>
+  </si>
+  <si>
+    <t>BCF18407-079A-EE01-39BA-04FB6871FE5C</t>
+  </si>
+  <si>
+    <t>Dora</t>
+  </si>
+  <si>
+    <t>Duffy</t>
+  </si>
+  <si>
+    <t>1-125-466-8033</t>
+  </si>
+  <si>
+    <t>ullamcorper@etmagnisdis.net</t>
+  </si>
+  <si>
+    <t>4431 In Street</t>
+  </si>
+  <si>
+    <t>288ACF4C-4F44-F6AB-850A-6221C72721C6</t>
+  </si>
+  <si>
+    <t>Tanya</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>409-2204</t>
+  </si>
+  <si>
+    <t>nisl.Quisque@enimconsequatpurus.edu</t>
+  </si>
+  <si>
+    <t>Ap #545-7501 Curabitur Rd.</t>
+  </si>
+  <si>
+    <t>73A1E9F8-E630-0514-DB88-2679EE3AC27A</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>964-8176</t>
+  </si>
+  <si>
+    <t>vel@Suspendisse.co.uk</t>
+  </si>
+  <si>
+    <t>805-3895 Primis Street</t>
+  </si>
+  <si>
+    <t>1E6167B8-D55A-6A0B-4B94-B16D7E7A9B72</t>
+  </si>
+  <si>
+    <t>Reese</t>
+  </si>
+  <si>
+    <t>Mosley</t>
+  </si>
+  <si>
+    <t>1-644-226-9805</t>
+  </si>
+  <si>
+    <t>faucibus@urna.com</t>
+  </si>
+  <si>
+    <t>Ap #210-387 Felis Rd.</t>
+  </si>
+  <si>
+    <t>B0110570-B1D8-FD81-BABD-A92855248B6E</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>1-917-156-2380</t>
+  </si>
+  <si>
+    <t>magna.nec.quam@Cras.org</t>
+  </si>
+  <si>
+    <t>686-1011 Nam Road</t>
+  </si>
+  <si>
+    <t>4EE60854-13B9-5EE8-ED6A-EC8AB7AE574F</t>
+  </si>
+  <si>
+    <t>Avila</t>
+  </si>
+  <si>
+    <t>1-591-962-5400</t>
+  </si>
+  <si>
+    <t>pede@semut.ca</t>
+  </si>
+  <si>
+    <t>Ap #288-3931 Orci. Avenue</t>
+  </si>
+  <si>
+    <t>3F3007DF-F6F7-1DE5-68A6-1E3953DDE4AE</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>334-6490</t>
+  </si>
+  <si>
+    <t>vel.convallis.in@magnaCras.com</t>
+  </si>
+  <si>
+    <t>434-7328 Arcu Rd.</t>
+  </si>
+  <si>
+    <t>2D18B2A6-09AB-06DF-8304-F5B5D757411F</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>221-0469</t>
+  </si>
+  <si>
+    <t>erat.Etiam.vestibulum@anteipsum.co.uk</t>
+  </si>
+  <si>
+    <t>775-5302 Molestie Ave</t>
+  </si>
+  <si>
+    <t>746A5ED9-0F25-1725-BD48-70CF780BF77B</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>1-699-631-3924</t>
+  </si>
+  <si>
+    <t>Fusce@malesuadaaugueut.net</t>
+  </si>
+  <si>
+    <t>394-5477 Amet, Av.</t>
+  </si>
+  <si>
+    <t>AE270E93-E3DF-23A7-9F65-AFFC0E771FB0</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>Chang</t>
+  </si>
+  <si>
+    <t>193-7553</t>
+  </si>
+  <si>
+    <t>purus.Duis.elementum@odiovel.edu</t>
+  </si>
+  <si>
+    <t>164-3143 Aliquam Rd.</t>
+  </si>
+  <si>
+    <t>95D6CA96-ACE9-C026-9133-F743A0E833BF</t>
+  </si>
+  <si>
+    <t>Demetria</t>
+  </si>
+  <si>
+    <t>Sweet</t>
+  </si>
+  <si>
+    <t>1-752-856-1564</t>
+  </si>
+  <si>
+    <t>sociis@eget.ca</t>
+  </si>
+  <si>
+    <t>P.O. Box 409, 5801 Quam. St.</t>
+  </si>
+  <si>
+    <t>30F77337-F625-0807-E992-7B3E99BC1028</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Mcgowan</t>
+  </si>
+  <si>
+    <t>1-666-121-9053</t>
+  </si>
+  <si>
+    <t>eget.nisi@Mauris.com</t>
+  </si>
+  <si>
+    <t>122-6086 Erat Avenue</t>
+  </si>
+  <si>
+    <t>28D04A33-1C64-2649-CE4E-97EFC0612B3E</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>566-7898</t>
+  </si>
+  <si>
+    <t>non@blandit.com</t>
+  </si>
+  <si>
+    <t>Ap #186-1868 Dictum Ave</t>
+  </si>
+  <si>
+    <t>23A03265-1861-6574-0864-565EC48C71F5</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Atkins</t>
+  </si>
+  <si>
+    <t>776-3735</t>
+  </si>
+  <si>
+    <t>tellus@ultricies.edu</t>
+  </si>
+  <si>
+    <t>7014 Sodales St.</t>
+  </si>
+  <si>
+    <t>DDA6BEE2-7E12-2A70-6733-52448BC8F785</t>
+  </si>
+  <si>
+    <t>Darius</t>
+  </si>
+  <si>
+    <t>Valdez</t>
+  </si>
+  <si>
+    <t>940-2399</t>
+  </si>
+  <si>
+    <t>est.arcu.ac@accumsanneque.org</t>
+  </si>
+  <si>
+    <t>Ap #962-1063 Nonummy St.</t>
+  </si>
+  <si>
+    <t>2B330315-BEBB-D8D8-D23A-2D3D154316BA</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Dyer</t>
+  </si>
+  <si>
+    <t>491-2166</t>
+  </si>
+  <si>
+    <t>rhoncus@feugiatnonlobortis.edu</t>
+  </si>
+  <si>
+    <t>6773 Ut St.</t>
+  </si>
+  <si>
+    <t>234EAE0B-95C3-E2D2-BDE9-11DC64625075</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>1-999-252-6827</t>
+  </si>
+  <si>
+    <t>pede.blandit.congue@odioNaminterdum.ca</t>
+  </si>
+  <si>
+    <t>Ap #282-9580 Ante Street</t>
+  </si>
+  <si>
+    <t>BBF5D180-8EDF-63F3-9BBD-272AD91E7CA1</t>
+  </si>
+  <si>
+    <t>Allegra</t>
+  </si>
+  <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>148-2898</t>
+  </si>
+  <si>
+    <t>sodales.at@scelerisquenequeNullam.edu</t>
+  </si>
+  <si>
+    <t>1780 Quis Road</t>
+  </si>
+  <si>
+    <t>187DF510-EF96-1B57-5108-1ECFFF17EEF5</t>
+  </si>
+  <si>
+    <t>Dexter</t>
+  </si>
+  <si>
+    <t>Hess</t>
+  </si>
+  <si>
+    <t>751-7044</t>
+  </si>
+  <si>
+    <t>odio.Etiam.ligula@sagittis.co.uk</t>
+  </si>
+  <si>
+    <t>1086 Augue Road</t>
+  </si>
+  <si>
+    <t>6233B3E0-4150-1CC5-98B2-8B63E9F2C38F</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>518-8262</t>
+  </si>
+  <si>
+    <t>sem@Etiamgravidamolestie.net</t>
+  </si>
+  <si>
+    <t>334-6812 Duis Road</t>
+  </si>
+  <si>
+    <t>E38150E8-5D7D-B12A-8D43-12153BE25346</t>
+  </si>
+  <si>
+    <t>Velma</t>
+  </si>
+  <si>
+    <t>Nielsen</t>
+  </si>
+  <si>
+    <t>482-2507</t>
+  </si>
+  <si>
+    <t>ac.nulla@pedeNuncsed.net</t>
+  </si>
+  <si>
+    <t>8648 Nunc Road</t>
+  </si>
+  <si>
+    <t>97D12A78-56BD-BB90-9053-EE9DFF107B51</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>1-666-853-3208</t>
+  </si>
+  <si>
+    <t>magna.sed@Aenean.edu</t>
+  </si>
+  <si>
+    <t>452-5351 Praesent Ave</t>
+  </si>
+  <si>
+    <t>26157055-BEDA-F5E8-C82B-FD89A289EF24</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Oneil</t>
+  </si>
+  <si>
+    <t>191-1474</t>
+  </si>
+  <si>
+    <t>blandit.Nam.nulla@Suspendisseseddolor.net</t>
+  </si>
+  <si>
+    <t>P.O. Box 256, 6106 Fermentum Rd.</t>
+  </si>
+  <si>
+    <t>F9E582BF-259D-19BC-D6E8-98956D22F65C</t>
+  </si>
+  <si>
+    <t>Dustin</t>
+  </si>
+  <si>
+    <t>Morse</t>
+  </si>
+  <si>
+    <t>869-3119</t>
+  </si>
+  <si>
+    <t>vitae.semper.egestas@ridiculus.ca</t>
+  </si>
+  <si>
+    <t>P.O. Box 529, 8444 Sed, Ave</t>
+  </si>
+  <si>
+    <t>D9A55127-58E1-EF2C-D0CA-BD2043740913</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Chaney</t>
+  </si>
+  <si>
+    <t>221-9426</t>
+  </si>
+  <si>
+    <t>Morbi@nisiCumsociis.com</t>
+  </si>
+  <si>
+    <t>2618 Nisi. Road</t>
+  </si>
+  <si>
+    <t>E66DB804-37B3-2090-9BB8-B767BC27B613</t>
+  </si>
+  <si>
+    <t>Yasir</t>
+  </si>
+  <si>
+    <t>Gilliam</t>
+  </si>
+  <si>
+    <t>360-9592</t>
+  </si>
+  <si>
+    <t>arcu.Aliquam.ultrices@egestasSedpharetra.org</t>
+  </si>
+  <si>
+    <t>3787 Metus Street</t>
+  </si>
+  <si>
+    <t>9F7C0C5F-E37A-0793-0E7D-5A94B2C411D2</t>
+  </si>
+  <si>
+    <t>Vance</t>
+  </si>
+  <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>564-6228</t>
+  </si>
+  <si>
+    <t>a.aliquet.vel@ornareplacerat.com</t>
+  </si>
+  <si>
+    <t>780-2928 Luctus St.</t>
+  </si>
+  <si>
+    <t>56DEF353-5853-1541-8E67-B759C22FE380</t>
+  </si>
+  <si>
+    <t>Scarlett</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>1-348-654-5604</t>
+  </si>
+  <si>
+    <t>Morbi.quis@Sedetlibero.edu</t>
+  </si>
+  <si>
+    <t>P.O. Box 979, 7052 Ultrices St.</t>
+  </si>
+  <si>
+    <t>6BB8C8F1-2F4D-5CDF-E206-725B5AAE01EC</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>1-563-289-8331</t>
+  </si>
+  <si>
+    <t>et@variusNamporttitor.com</t>
+  </si>
+  <si>
+    <t>442-6449 Facilisis, Ave</t>
+  </si>
+  <si>
+    <t>8D67A3BC-22CC-44E4-42A7-5A8687F931A4</t>
+  </si>
+  <si>
+    <t>Lacey</t>
+  </si>
+  <si>
+    <t>Dodson</t>
+  </si>
+  <si>
+    <t>171-0136</t>
+  </si>
+  <si>
+    <t>a.malesuada@ametorciUt.net</t>
+  </si>
+  <si>
+    <t>687-842 Blandit Rd.</t>
+  </si>
+  <si>
+    <t>3A9FF0EF-27CA-D3EE-5B2E-9098B8FEF41C</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>Mccullough</t>
+  </si>
+  <si>
+    <t>453-5633</t>
+  </si>
+  <si>
+    <t>ligula@anteMaecenasmi.edu</t>
+  </si>
+  <si>
+    <t>Ap #388-3722 Ut Rd.</t>
+  </si>
+  <si>
+    <t>61F57114-E6E6-64A8-E8F0-0180CFC596CB</t>
+  </si>
+  <si>
+    <t>Cally</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>654-0592</t>
+  </si>
+  <si>
+    <t>risus.Duis@turpisegestasAliquam.ca</t>
+  </si>
+  <si>
+    <t>Ap #829-4744 Ut Ave</t>
+  </si>
+  <si>
+    <t>3AD2F10C-29CC-DC0E-3B33-44BA50A61694</t>
+  </si>
+  <si>
+    <t>Keefe</t>
+  </si>
+  <si>
+    <t>Odonnell</t>
+  </si>
+  <si>
+    <t>988-4306</t>
+  </si>
+  <si>
+    <t>quis@mauris.ca</t>
+  </si>
+  <si>
+    <t>5043 Ipsum Street</t>
+  </si>
+  <si>
+    <t>8B3129A0-84DC-A4EA-A6BF-54219ADADC24</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Dickerson</t>
+  </si>
+  <si>
+    <t>861-6771</t>
+  </si>
+  <si>
+    <t>aliquet.sem.ut@liberoMorbiaccumsan.edu</t>
+  </si>
+  <si>
+    <t>2784 Luctus Ave</t>
+  </si>
+  <si>
+    <t>515C80F0-0AC3-3FB7-4487-BA291918B632</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t>583-5227</t>
+  </si>
+  <si>
+    <t>quam.vel.sapien@antebibendum.org</t>
+  </si>
+  <si>
+    <t>3084 Eget Avenue</t>
+  </si>
+  <si>
+    <t>14FBDAEE-2D2F-9AB8-603A-B360BF3478BB</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>1-532-969-1719</t>
+  </si>
+  <si>
+    <t>egestas@diameu.com</t>
+  </si>
+  <si>
+    <t>6887 Velit. Street</t>
+  </si>
+  <si>
+    <t>F33FEB27-9E11-985B-E8EC-A8B1EACEFCA8</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>802-5843</t>
+  </si>
+  <si>
+    <t>mattis@lacusMauris.edu</t>
+  </si>
+  <si>
+    <t>Ap #575-4475 Vitae St.</t>
+  </si>
+  <si>
+    <t>102B5600-B560-92D9-187F-B4169159DDBF</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>1-932-768-5458</t>
+  </si>
+  <si>
+    <t>at@fringilla.com</t>
+  </si>
+  <si>
+    <t>5794 Molestie Av.</t>
+  </si>
+  <si>
+    <t>77020D7F-B39A-295C-7195-24B48A2C0FC9</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>1-248-469-9401</t>
+  </si>
+  <si>
+    <t>at.pede.Cras@tempusscelerisquelorem.com</t>
+  </si>
+  <si>
+    <t>P.O. Box 234, 4371 Aliquam Road</t>
+  </si>
+  <si>
+    <t>505DDE56-32F3-BBC6-418C-D388A47999A8</t>
+  </si>
+  <si>
+    <t>Lucius</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>908-0048</t>
+  </si>
+  <si>
+    <t>natoque.penatibus@quam.org</t>
+  </si>
+  <si>
+    <t>Ap #533-985 Montes, St.</t>
+  </si>
+  <si>
+    <t>AC26CAEC-72CE-FF22-1E51-FD8A288C0C9A</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Powers</t>
+  </si>
+  <si>
+    <t>1-886-484-0939</t>
+  </si>
+  <si>
+    <t>dis.parturient@Sedidrisus.net</t>
+  </si>
+  <si>
+    <t>P.O. Box 890, 7540 Pellentesque Rd.</t>
+  </si>
+  <si>
+    <t>30945025-1332-5441-51B5-BBE868471E93</t>
+  </si>
+  <si>
+    <t>Serina</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>1-965-800-0626</t>
+  </si>
+  <si>
+    <t>interdum@sedest.org</t>
+  </si>
+  <si>
+    <t>P.O. Box 778, 8821 Ut Avenue</t>
+  </si>
+  <si>
+    <t>250FC2BB-3CDA-BD90-9377-8BFD307FC8F7</t>
+  </si>
+  <si>
+    <t>Gareth</t>
+  </si>
+  <si>
+    <t>Waller</t>
+  </si>
+  <si>
+    <t>203-0235</t>
+  </si>
+  <si>
+    <t>orci.Donec@Vestibulumut.com</t>
+  </si>
+  <si>
+    <t>Ap #150-1287 Eu St.</t>
+  </si>
+  <si>
+    <t>6D18EA4E-9883-AE48-876A-0BCBFA857BDC</t>
+  </si>
+  <si>
+    <t>Fleur</t>
+  </si>
+  <si>
+    <t>Merritt</t>
+  </si>
+  <si>
+    <t>1-942-990-9548</t>
+  </si>
+  <si>
+    <t>id@imperdiet.net</t>
+  </si>
+  <si>
+    <t>Ap #492-1534 Consequat, Rd.</t>
+  </si>
+  <si>
+    <t>8B419C49-0ABA-E97B-212E-9BA7B7BFE3C5</t>
+  </si>
+  <si>
+    <t>Cassidy</t>
+  </si>
+  <si>
+    <t>Howe</t>
+  </si>
+  <si>
+    <t>929-5027</t>
+  </si>
+  <si>
+    <t>aliquet@egestasAliquam.co.uk</t>
+  </si>
+  <si>
+    <t>313-7841 Tortor, Road</t>
+  </si>
+  <si>
+    <t>3191B0E1-472F-96B4-9C6D-C3CDC4DAA418</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>Jarvis</t>
+  </si>
+  <si>
+    <t>683-6001</t>
+  </si>
+  <si>
+    <t>nec@Donecnibhenim.edu</t>
+  </si>
+  <si>
+    <t>Ap #741-850 Ligula. St.</t>
+  </si>
+  <si>
+    <t>25F591B6-CB9D-3E7E-D94C-37F92EC81A38</t>
+  </si>
+  <si>
+    <t>Hedwig</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>1-923-182-2400</t>
+  </si>
+  <si>
+    <t>ante@nonummy.com</t>
+  </si>
+  <si>
+    <t>P.O. Box 552, 3474 Imperdiet Ave</t>
+  </si>
+  <si>
+    <t>AF327EE8-11D3-3071-3565-62DCEC0DE37D</t>
+  </si>
+  <si>
+    <t>Allistair</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>981-1518</t>
+  </si>
+  <si>
+    <t>vitae.mauris@cursus.ca</t>
+  </si>
+  <si>
+    <t>P.O. Box 187, 2416 Nullam Rd.</t>
+  </si>
+  <si>
+    <t>805ED6D4-D5D5-20CF-3EA8-3E94FC0751C0</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>992-7793</t>
+  </si>
+  <si>
+    <t>non.lacinia@scelerisquesedsapien.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #535-4032 Donec Rd.</t>
+  </si>
+  <si>
+    <t>92F65383-35BD-8311-08BD-4F029965E6A4</t>
+  </si>
+  <si>
+    <t>Shafira</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>556-0976</t>
+  </si>
+  <si>
+    <t>malesuada.vel.venenatis@mollis.org</t>
+  </si>
+  <si>
+    <t>Ap #320-8914 Lectus Ave</t>
+  </si>
+  <si>
+    <t>973F1563-B7B2-F1EC-CF73-535A9FDAC0CE</t>
+  </si>
+  <si>
+    <t>Lilah</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>1-813-152-2277</t>
+  </si>
+  <si>
+    <t>parturient@amet.edu</t>
+  </si>
+  <si>
+    <t>P.O. Box 231, 3117 Consequat, Ave</t>
+  </si>
+  <si>
+    <t>543B9EB4-128B-6891-FB44-7614C196D54D</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>1-189-796-4381</t>
+  </si>
+  <si>
+    <t>sem.magna@dolorFuscemi.com</t>
+  </si>
+  <si>
+    <t>965-9621 Ad St.</t>
+  </si>
+  <si>
+    <t>17ACC90E-6543-C17D-3C57-CE4BE9ED4372</t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>847-6195</t>
+  </si>
+  <si>
+    <t>lectus.Cum@Fusce.edu</t>
+  </si>
+  <si>
+    <t>722-9193 Nibh Avenue</t>
+  </si>
+  <si>
+    <t>F3F1776E-A3BA-2E8F-55DC-FDF749A845BF</t>
+  </si>
+  <si>
+    <t>Xenos</t>
+  </si>
+  <si>
+    <t>Walls</t>
+  </si>
+  <si>
+    <t>109-0344</t>
+  </si>
+  <si>
+    <t>mauris@Curabiturutodio.org</t>
+  </si>
+  <si>
+    <t>215-9642 Varius Rd.</t>
+  </si>
+  <si>
+    <t>6C68892A-C346-FE0A-1666-2581090559E1</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>192-7987</t>
+  </si>
+  <si>
+    <t>porttitor.tellus@feugiat.net</t>
+  </si>
+  <si>
+    <t>610-1792 Erat Road</t>
+  </si>
+  <si>
+    <t>98EC1BFB-8D76-0294-5D34-EA0223420C03</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Mccoy</t>
+  </si>
+  <si>
+    <t>1-120-493-2436</t>
+  </si>
+  <si>
+    <t>ac.mattis.ornare@Vestibulum.ca</t>
+  </si>
+  <si>
+    <t>P.O. Box 688, 4926 Non Rd.</t>
+  </si>
+  <si>
+    <t>951E1937-193A-D48D-9E57-17DEF83A6806</t>
+  </si>
+  <si>
+    <t>Whoopi</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>1-385-511-6381</t>
+  </si>
+  <si>
+    <t>erat.nonummy@adipiscing.co.uk</t>
+  </si>
+  <si>
+    <t>3662 Iaculis Av.</t>
+  </si>
+  <si>
+    <t>1766EACC-57B6-2925-E347-4360D57ADFBC</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>1-743-684-2094</t>
+  </si>
+  <si>
+    <t>laoreet@convallisest.com</t>
+  </si>
+  <si>
+    <t>P.O. Box 433, 9025 Blandit St.</t>
+  </si>
+  <si>
+    <t>F7E2D442-1965-B042-B6C7-8B56286D5FA9</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>1-491-342-7486</t>
+  </si>
+  <si>
+    <t>interdum.Curabitur@loremac.com</t>
+  </si>
+  <si>
+    <t>P.O. Box 499, 8092 Ligula. St.</t>
+  </si>
+  <si>
+    <t>762078BC-4638-5142-4B1E-B7E08696EBDA</t>
+  </si>
+  <si>
+    <t>Holcomb</t>
+  </si>
+  <si>
+    <t>1-752-226-7184</t>
+  </si>
+  <si>
+    <t>libero.Proin.sed@mauris.co.uk</t>
+  </si>
+  <si>
+    <t>P.O. Box 690, 6073 Magna. Street</t>
+  </si>
+  <si>
+    <t>A48679D6-EF5E-6EBE-59E3-CF39BE6E0F36</t>
+  </si>
+  <si>
+    <t>Rae</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>1-960-277-4857</t>
+  </si>
+  <si>
+    <t>iaculis@lacus.org</t>
+  </si>
+  <si>
+    <t>P.O. Box 899, 8444 Urna Rd.</t>
+  </si>
+  <si>
+    <t>68BE8E47-159B-ABA3-952D-ED91B748D1BD</t>
+  </si>
+  <si>
+    <t>Cassady</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>231-8125</t>
+  </si>
+  <si>
+    <t>pede.Cras.vulputate@laoreet.net</t>
+  </si>
+  <si>
+    <t>4410 Sed St.</t>
+  </si>
+  <si>
+    <t>4A701A62-0C19-F48C-42E7-5819ED449581</t>
+  </si>
+  <si>
+    <t>Madonna</t>
+  </si>
+  <si>
+    <t>Barber</t>
+  </si>
+  <si>
+    <t>1-801-328-8859</t>
+  </si>
+  <si>
+    <t>neque.Nullam@Nam.com</t>
+  </si>
+  <si>
+    <t>8554 Dolor. Rd.</t>
+  </si>
+  <si>
+    <t>FD7A565C-7ABE-EAB4-CB72-5CFF688B1EF8</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Rosales</t>
+  </si>
+  <si>
+    <t>387-6341</t>
+  </si>
+  <si>
+    <t>quam.dignissim.pharetra@etlibero.com</t>
+  </si>
+  <si>
+    <t>P.O. Box 507, 1422 Suspendisse St.</t>
+  </si>
+  <si>
+    <t>AE39E1E7-EB69-9C05-6D1D-661A5598239C</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>411-2414</t>
+  </si>
+  <si>
+    <t>nascetur@dignissimmagna.edu</t>
+  </si>
+  <si>
+    <t>999-5857 Nulla St.</t>
+  </si>
+  <si>
+    <t>4F6D1DC2-05F0-AF11-21A6-C7F3CAD67077</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>Valentine</t>
+  </si>
+  <si>
+    <t>1-778-178-4594</t>
+  </si>
+  <si>
+    <t>aliquet@sodaleseliterat.net</t>
+  </si>
+  <si>
+    <t>Ap #130-8878 Leo. St.</t>
+  </si>
+  <si>
+    <t>93056F7D-49B6-7A15-5906-E2931EA1A477</t>
+  </si>
+  <si>
+    <t>Nehru</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>1-719-557-3337</t>
+  </si>
+  <si>
+    <t>eleifend.nunc.risus@molestietortornibh.com</t>
+  </si>
+  <si>
+    <t>Ap #988-3145 Cum Ave</t>
+  </si>
+  <si>
+    <t>A9959EBF-EF55-6FC3-6B77-E20B416D26DF</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>Mcgee</t>
+  </si>
+  <si>
+    <t>499-2145</t>
+  </si>
+  <si>
+    <t>aliquet.lobortis@Aliquamornare.net</t>
+  </si>
+  <si>
+    <t>3452 Libero St.</t>
+  </si>
+  <si>
+    <t>316ACA2C-A951-2325-B20C-ADA37287CB54</t>
+  </si>
+  <si>
+    <t>Quamar</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>1-780-693-3636</t>
+  </si>
+  <si>
+    <t>magna.et@anteNunc.co.uk</t>
+  </si>
+  <si>
+    <t>Ap #159-4944 Felis Av.</t>
+  </si>
+  <si>
+    <t>6201B9ED-B734-6230-C7F3-89F49C42F0C4</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Mcknight</t>
+  </si>
+  <si>
+    <t>716-4142</t>
+  </si>
+  <si>
+    <t>pede.Cras.vulputate@Curabitur.com</t>
+  </si>
+  <si>
+    <t>Ap #812-970 Senectus Rd.</t>
+  </si>
+  <si>
+    <t>F5159C2E-9F49-1928-5DAA-AAAC1413F66F</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>1-967-987-8594</t>
+  </si>
+  <si>
+    <t>eu.dui@facilisisfacilisismagna.net</t>
+  </si>
+  <si>
+    <t>P.O. Box 673, 7054 Lectus Av.</t>
+  </si>
+  <si>
+    <t>BFD8135F-24DE-08A4-2B65-2D94C83B6FD3</t>
+  </si>
+  <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>1-521-467-8442</t>
+  </si>
+  <si>
+    <t>et.malesuada.fames@DonecfringillaDonec.org</t>
+  </si>
+  <si>
+    <t>3476 Vel, Road</t>
+  </si>
+  <si>
+    <t>34350098-0F40-7EFC-8AC6-E3BF4887CDF0</t>
+  </si>
+  <si>
+    <t>Sacha</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>1-322-977-1663</t>
+  </si>
+  <si>
+    <t>erat.vitae.risus@ligulaelit.ca</t>
+  </si>
+  <si>
+    <t>P.O. Box 987, 2697 Turpis St.</t>
+  </si>
+  <si>
+    <t>899A656D-9C3F-544F-E137-79C19BD1442E</t>
+  </si>
+  <si>
+    <t>Reagan</t>
+  </si>
+  <si>
+    <t>Whitehead</t>
+  </si>
+  <si>
+    <t>324-4534</t>
+  </si>
+  <si>
+    <t>enim@mollisvitaeposuere.co.uk</t>
+  </si>
+  <si>
+    <t>710-177 Nunc Road</t>
+  </si>
+  <si>
+    <t>30C27A13-8F9F-BA0E-62AB-D0E5B30E8172</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>1-741-794-9636</t>
+  </si>
+  <si>
+    <t>luctus.ipsum@venenatisvelfaucibus.ca</t>
+  </si>
+  <si>
+    <t>599-2373 Nonummy Av.</t>
+  </si>
+  <si>
+    <t>C3EBB07F-619E-6679-2498-111B267B33CB</t>
+  </si>
+  <si>
+    <t>Harriet</t>
+  </si>
+  <si>
+    <t>836-1596</t>
+  </si>
+  <si>
+    <t>ut.pellentesque.eget@eu.ca</t>
+  </si>
+  <si>
+    <t>Ap #121-5743 Tempus, Rd.</t>
+  </si>
+  <si>
+    <t>4B931A07-86DA-4F49-9FEE-B6AD22D6DB52</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>Mcdaniel</t>
+  </si>
+  <si>
+    <t>923-7596</t>
+  </si>
+  <si>
+    <t>sociis.natoque@auguescelerisque.com</t>
+  </si>
+  <si>
+    <t>8778 Lobortis Av.</t>
+  </si>
+  <si>
+    <t>85B203F9-2229-CCD3-155C-CF06E0FE3368</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>443-3769</t>
+  </si>
+  <si>
+    <t>pellentesque.tellus.sem@faucibusorci.com</t>
+  </si>
+  <si>
+    <t>P.O. Box 195, 636 Sed St.</t>
+  </si>
+  <si>
+    <t>8D8DA25F-B215-EF4A-12C7-97E307B6494D</t>
+  </si>
+  <si>
+    <t>Ainsley</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>1-365-274-8103</t>
+  </si>
+  <si>
+    <t>enim@elementumpurus.org</t>
+  </si>
+  <si>
+    <t>7283 Nec Street</t>
+  </si>
+  <si>
+    <t>ECA291AE-D29E-30C4-12D5-085339B1C8E5</t>
+  </si>
+  <si>
+    <t>Rudyard</t>
+  </si>
+  <si>
+    <t>565-1229</t>
+  </si>
+  <si>
+    <t>nisl@nuncQuisque.edu</t>
+  </si>
+  <si>
+    <t>919-6749 Lacinia Av.</t>
+  </si>
+  <si>
+    <t>05F4BDE3-65D7-8744-60EF-35A139452204</t>
+  </si>
+  <si>
+    <t>Odom</t>
+  </si>
+  <si>
+    <t>220-9388</t>
+  </si>
+  <si>
+    <t>ultrices.Duis@elitCurabitursed.net</t>
+  </si>
+  <si>
+    <t>751-4765 Adipiscing St.</t>
+  </si>
+  <si>
+    <t>766B6BAF-4F62-1A76-2027-08E032E3B5F2</t>
+  </si>
+  <si>
+    <t>Reuben</t>
+  </si>
+  <si>
+    <t>Cantrell</t>
+  </si>
+  <si>
+    <t>1-334-138-6424</t>
+  </si>
+  <si>
+    <t>lectus@metusAenean.ca</t>
+  </si>
+  <si>
+    <t>8045 Mi Road</t>
   </si>
 </sst>
 </file>
@@ -251,12 +1964,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -611,7 +2321,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -621,7 +2331,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -657,11 +2367,11 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{4F4E4131-A5C7-4A07-9E4E-9C422C1FE834}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -978,17 +2688,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCAF9F8-EE54-4348-A62B-752173F67A19}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1016,314 +2727,2006 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>842529548</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>842529549</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>842529550</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>842529551</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
-        <v>842529552</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>842529553</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <v>842529554</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5">
-        <v>842529555</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
-        <v>842529556</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>842529557</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>842529558</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5">
-        <v>842529559</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5">
-        <v>842529560</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5">
-        <v>842529561</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5">
-        <v>842529562</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="5">
-        <v>842529563</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5">
-        <v>842529564</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>25</v>
+      <c r="C79" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{707A2F8E-6CCB-4A73-ABFA-73C453B2B868}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{4031BD45-1FCD-4329-B147-D33753A92B34}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{E1AF1874-E109-490B-821E-98E37CDA12CB}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{D117FD6F-C0E8-46BE-8347-BF4CDC4B0F52}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{3121D56E-8498-43DA-961D-90E3355462E5}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{9481BBC9-3E0C-4BF1-B62C-C68EF88D1E6A}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{23DFEE1A-D515-4719-B8F5-E761F3B52542}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{A3BCB523-359F-4BC5-A07A-5059108E22E0}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{2C7EE194-80A7-4001-B07F-A0D3ED26BEF5}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{AA6B6685-1182-4E3B-AFCF-D65FAAF8497F}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{EFD0E34B-38B4-458B-B3A5-30C7B4C47DC1}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{23DBBAA3-191C-4B63-BF68-E249F19DD920}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{1C9B4570-DAD0-481F-9AEA-A112AE572558}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{FF67FB3C-334F-4EF8-AF30-053FD1B813D9}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{6E332567-1D25-4C19-B9FE-3757105820AE}"/>
-    <hyperlink ref="E17" r:id="rId16" xr:uid="{DD1764D7-AD17-4B41-9647-9FEE8F6AB00D}"/>
-    <hyperlink ref="E18" r:id="rId17" xr:uid="{8FDEA183-6B5A-4535-A286-237C97B3B602}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>